--- a/tabela_resumida.xlsx
+++ b/tabela_resumida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="30">
   <si>
     <t>Nº</t>
   </si>
@@ -37,7 +37,13 @@
     <t>Planejamento</t>
   </si>
   <si>
-    <t>Arquivado</t>
+    <t>DE 1/2024</t>
+  </si>
+  <si>
+    <t>DE 2/2024</t>
+  </si>
+  <si>
+    <t>DE 3/2024</t>
   </si>
   <si>
     <t>DE 4/2024</t>
@@ -46,28 +52,46 @@
     <t>DE 5/2024</t>
   </si>
   <si>
+    <t>DE 10/2024</t>
+  </si>
+  <si>
     <t>DE 6/2024</t>
   </si>
   <si>
-    <t>DE 1/2024</t>
+    <t>DE 7/2024</t>
+  </si>
+  <si>
+    <t>DE 8/2024</t>
+  </si>
+  <si>
+    <t>DE 9/2024</t>
+  </si>
+  <si>
+    <t>DE 11/2024</t>
+  </si>
+  <si>
+    <t>DE 12/2024</t>
+  </si>
+  <si>
+    <t>DE 90001/2024</t>
+  </si>
+  <si>
+    <t>DE 90002/2024</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>xxxxxxxx</t>
-  </si>
-  <si>
     <t>teste</t>
   </si>
   <si>
-    <t>testesxxxxxxxx</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testes</t>
   </si>
   <si>
     <t>CeIMBra</t>
-  </si>
-  <si>
-    <t>ERMB</t>
   </si>
   <si>
     <t>Centro de Intendência da Marinha em Brasília</t>
@@ -488,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,7 +527,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -513,7 +537,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -523,7 +547,7 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -533,7 +557,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -569,16 +593,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -589,16 +613,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -609,16 +633,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -626,19 +650,219 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5">
         <v>11</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5">
         <v>13</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>17</v>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tabela_resumida.xlsx
+++ b/tabela_resumida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Nº</t>
   </si>
@@ -43,57 +43,21 @@
     <t>DE 2/2024</t>
   </si>
   <si>
-    <t>DE 3/2024</t>
-  </si>
-  <si>
-    <t>DE 4/2024</t>
-  </si>
-  <si>
-    <t>DE 5/2024</t>
-  </si>
-  <si>
-    <t>DE 10/2024</t>
-  </si>
-  <si>
-    <t>DE 6/2024</t>
-  </si>
-  <si>
-    <t>DE 7/2024</t>
-  </si>
-  <si>
-    <t>DE 8/2024</t>
-  </si>
-  <si>
-    <t>DE 9/2024</t>
-  </si>
-  <si>
-    <t>DE 11/2024</t>
-  </si>
-  <si>
-    <t>DE 12/2024</t>
-  </si>
-  <si>
-    <t>DE 90001/2024</t>
-  </si>
-  <si>
-    <t>DE 90002/2024</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>testes</t>
   </si>
   <si>
+    <t>testesx</t>
+  </si>
+  <si>
     <t>CeIMBra</t>
   </si>
   <si>
+    <t>CFGO</t>
+  </si>
+  <si>
     <t>Centro de Intendência da Marinha em Brasília</t>
   </si>
   <si>
@@ -103,7 +67,7 @@
     <t>Controle de Dispensas Eletrônica</t>
   </si>
   <si>
-    <t>Atualizado em: 06/11/2024</t>
+    <t>Atualizado em: 07/11/2024</t>
   </si>
 </sst>
 </file>
@@ -512,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,7 +491,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -537,7 +501,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -547,7 +511,7 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -557,7 +521,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -596,13 +560,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -616,253 +580,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
